--- a/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5719</v>
+        <v>5066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00447242437323629</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01532353237614508</v>
+        <v>0.01357518787222814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -768,16 +768,16 @@
         <v>1197</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11467</v>
+        <v>11281</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007727803284479781</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002036729678548977</v>
+        <v>0.002036359535473518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0195104781233055</v>
+        <v>0.01919423177462006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>6211</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2517</v>
+        <v>2131</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13786</v>
+        <v>12896</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006463547961955551</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002618963012128462</v>
+        <v>0.00221760529468363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01434596851720024</v>
+        <v>0.01341988024137587</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9966</v>
+        <v>10062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24140</v>
+        <v>25255</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04456529839711876</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02670471838582566</v>
+        <v>0.02696276616762673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06468594945217881</v>
+        <v>0.06767302658671746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -836,19 +836,19 @@
         <v>30811</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20822</v>
+        <v>20949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44027</v>
+        <v>43333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0524217929462009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0354265130767273</v>
+        <v>0.03564271301839828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07490787631939178</v>
+        <v>0.07372747533407187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -857,19 +857,19 @@
         <v>47442</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35758</v>
+        <v>35616</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63128</v>
+        <v>63917</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04937065348721066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03721140878291829</v>
+        <v>0.03706377943312566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06569396966144403</v>
+        <v>0.0665148986151122</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>354889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>347032</v>
+        <v>345629</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>362197</v>
+        <v>362122</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.950962277229645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9299092798228429</v>
+        <v>0.9261487925812054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9705468914967581</v>
+        <v>0.9703454241063534</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>542</v>
@@ -907,19 +907,19 @@
         <v>552396</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>539472</v>
+        <v>539585</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>563408</v>
+        <v>563044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9398504037693193</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9178608902075477</v>
+        <v>0.9180542692625171</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9585855554884151</v>
+        <v>0.9579665781597934</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>921</v>
@@ -928,19 +928,19 @@
         <v>907285</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>890052</v>
+        <v>889954</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>919896</v>
+        <v>920341</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9441657985508338</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.926232736475785</v>
+        <v>0.9261308878610033</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9572901072716421</v>
+        <v>0.957752781921671</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="9">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5129</v>
+        <v>5266</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01468850300910648</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08245165313002552</v>
+        <v>0.08464741055397669</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5358</v>
+        <v>7187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01146618619716429</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03564964027366026</v>
+        <v>0.04782066951147524</v>
       </c>
     </row>
     <row r="10">
@@ -1166,7 +1166,7 @@
         <v>87273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>88083</v>
@@ -1175,7 +1175,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>60157</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54904</v>
+        <v>55259</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>62212</v>
@@ -1196,7 +1196,7 @@
         <v>0.9669695893092035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8825289566587607</v>
+        <v>0.8882441752748973</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         <v>147431</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142748</v>
+        <v>141236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149493</v>
+        <v>149481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9809415035702086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9497837989506803</v>
+        <v>0.9397249013097377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9946634938750384</v>
+        <v>0.9945812679072665</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5886</v>
+        <v>6204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003321736080943579</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01171345244440895</v>
+        <v>0.0123469855247412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1549,19 +1549,19 @@
         <v>5683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2267</v>
+        <v>2027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12833</v>
+        <v>12102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008396488275372838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003348683294825694</v>
+        <v>0.002994304515040671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01896009007567728</v>
+        <v>0.01787959421071805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1570,19 +1570,19 @@
         <v>7352</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3152</v>
+        <v>3240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14549</v>
+        <v>16262</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006234296162276147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00267312817762913</v>
+        <v>0.002747762851244285</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0123371177699915</v>
+        <v>0.01378927596309922</v>
       </c>
     </row>
     <row r="17">
@@ -1599,19 +1599,19 @@
         <v>17441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10793</v>
+        <v>11197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26917</v>
+        <v>26246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03471037981447057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02147977295699617</v>
+        <v>0.02228341456605352</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05357019176056549</v>
+        <v>0.05223529080375977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1620,19 +1620,19 @@
         <v>31725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21358</v>
+        <v>22058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44840</v>
+        <v>44987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04687161659798267</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03155587194123231</v>
+        <v>0.03259005343392191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06624823102259059</v>
+        <v>0.06646577657628658</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -1641,19 +1641,19 @@
         <v>49165</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37577</v>
+        <v>34743</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66106</v>
+        <v>63138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04169009654510675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03186346394981429</v>
+        <v>0.02946015995823201</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05605529266647599</v>
+        <v>0.05353812495604463</v>
       </c>
     </row>
     <row r="18">
@@ -1670,19 +1670,19 @@
         <v>483356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>473329</v>
+        <v>474315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>490313</v>
+        <v>489966</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9619678841045859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9420111361109589</v>
+        <v>0.9439736203686379</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9758133276603055</v>
+        <v>0.9751230505364583</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>627</v>
@@ -1691,19 +1691,19 @@
         <v>639434</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>625539</v>
+        <v>625202</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>650815</v>
+        <v>649307</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9447318951266445</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9242026352048192</v>
+        <v>0.9237041200183478</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9615463125564009</v>
+        <v>0.9593184737954652</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1129</v>
@@ -1712,19 +1712,19 @@
         <v>1122790</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1105355</v>
+        <v>1108311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1135611</v>
+        <v>1137175</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9520756072926171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9372912312527529</v>
+        <v>0.9397978072624931</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9629469883816701</v>
+        <v>0.9642730874469893</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>9477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4251</v>
+        <v>4059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19325</v>
+        <v>17556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02287051390270204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01025837836941416</v>
+        <v>0.009795678790904911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04663304665946732</v>
+        <v>0.04236516570999475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2076,19 +2076,19 @@
         <v>16970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9630</v>
+        <v>9782</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28014</v>
+        <v>27574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02674353657303309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01517567338685004</v>
+        <v>0.01541501154094412</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04414868717642857</v>
+        <v>0.04345499013151294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -2097,19 +2097,19 @@
         <v>26447</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17760</v>
+        <v>17691</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39207</v>
+        <v>41251</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02521345072291349</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01693098363094294</v>
+        <v>0.01686540121003894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03737802378144951</v>
+        <v>0.03932610449104001</v>
       </c>
     </row>
     <row r="5">
@@ -2126,19 +2126,19 @@
         <v>23096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13807</v>
+        <v>15007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33648</v>
+        <v>33807</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05573301212216022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0333176529409412</v>
+        <v>0.03621376869331767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08119798529340494</v>
+        <v>0.08158105236882866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -2147,19 +2147,19 @@
         <v>40876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28494</v>
+        <v>29456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54742</v>
+        <v>54439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0644178142942783</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04490397207485999</v>
+        <v>0.0464213076744952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08627036283719866</v>
+        <v>0.08579200938557587</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -2168,19 +2168,19 @@
         <v>63972</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48929</v>
+        <v>48692</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80388</v>
+        <v>81695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06098677501417257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04664564996669118</v>
+        <v>0.04641974937164918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07663716945978172</v>
+        <v>0.07788327736001122</v>
       </c>
     </row>
     <row r="6">
@@ -2197,19 +2197,19 @@
         <v>381825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>369335</v>
+        <v>368637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>392505</v>
+        <v>391488</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9213964739751378</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8912557519054624</v>
+        <v>0.8895716742337255</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9471685717104539</v>
+        <v>0.9447156543316371</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>544</v>
@@ -2218,19 +2218,19 @@
         <v>576699</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>559235</v>
+        <v>560758</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>590596</v>
+        <v>590820</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9088386491326886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.881316265920902</v>
+        <v>0.8837163078599647</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.930739918015813</v>
+        <v>0.9310921346652195</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>893</v>
@@ -2239,19 +2239,19 @@
         <v>958523</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>936581</v>
+        <v>938261</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>976633</v>
+        <v>976152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9137997742629139</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8928811632887956</v>
+        <v>0.8944829757531105</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9310646404301712</v>
+        <v>0.9306060785725928</v>
       </c>
     </row>
     <row r="7">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6963</v>
+        <v>6611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01599017308380971</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08381598551394331</v>
+        <v>0.07957381201731163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7938</v>
+        <v>8150</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01150242976283411</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0393483422966884</v>
+        <v>0.04039867522801328</v>
       </c>
     </row>
     <row r="9">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7613</v>
+        <v>6648</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0180458633301809</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06415593140616149</v>
+        <v>0.05602412131777503</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7246</v>
+        <v>7304</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02506270845946024</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08722173769436173</v>
+        <v>0.08791888180694911</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -2456,19 +2456,19 @@
         <v>4223</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1072</v>
+        <v>1085</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10095</v>
+        <v>9662</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02093533862541347</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005312375950531378</v>
+        <v>0.005380397897453764</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05004222178016786</v>
+        <v>0.04789237018810839</v>
       </c>
     </row>
     <row r="10">
@@ -2485,19 +2485,19 @@
         <v>115531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110161</v>
+        <v>110307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117672</v>
+        <v>117698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9735934712699303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9283358061599338</v>
+        <v>0.9295701029446218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9916306818580478</v>
+        <v>0.9918542951204861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2506,19 +2506,19 @@
         <v>79664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73433</v>
+        <v>73758</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82103</v>
+        <v>82086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9589471184567301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8839452778673058</v>
+        <v>0.8878573533798396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9883145824851054</v>
+        <v>0.9881027730328887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -2527,19 +2527,19 @@
         <v>195195</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>188444</v>
+        <v>187992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199227</v>
+        <v>199284</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9675622316117525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9340958674256863</v>
+        <v>0.9318592536832886</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9875471072164528</v>
+        <v>0.9878290230633056</v>
       </c>
     </row>
     <row r="11">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7188</v>
+        <v>6627</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04271052085968116</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1472318218838271</v>
+        <v>0.1357357228208626</v>
       </c>
     </row>
     <row r="14">
@@ -2749,7 +2749,7 @@
         <v>25589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2758,7 +2758,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>21146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22246</v>
@@ -2779,7 +2779,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>46736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41633</v>
+        <v>42194</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>48821</v>
@@ -2800,7 +2800,7 @@
         <v>0.9572894791403188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8527681781161752</v>
+        <v>0.864264277179137</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2895,19 +2895,19 @@
         <v>10470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5231</v>
+        <v>5234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19502</v>
+        <v>19239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01870784846397888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0093478597519117</v>
+        <v>0.00935240345740568</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03484681146896472</v>
+        <v>0.03437763915940308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -2916,19 +2916,19 @@
         <v>18298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11517</v>
+        <v>10693</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31105</v>
+        <v>29189</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02473200028792271</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0155662064965411</v>
+        <v>0.01445270831287371</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04204092923600448</v>
+        <v>0.03945121859190571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -2937,19 +2937,19 @@
         <v>28768</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19100</v>
+        <v>19470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43732</v>
+        <v>42684</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0221376691451116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01469801250032501</v>
+        <v>0.01498254935606221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03365273100996538</v>
+        <v>0.03284613318661819</v>
       </c>
     </row>
     <row r="17">
@@ -2966,19 +2966,19 @@
         <v>26223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17758</v>
+        <v>17218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37241</v>
+        <v>38520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04685648781833272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03173138924183686</v>
+        <v>0.03076661652544018</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06654568409916378</v>
+        <v>0.06883080827416654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -2987,19 +2987,19 @@
         <v>44058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31467</v>
+        <v>32423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58692</v>
+        <v>59310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05954817876724587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.042530250244275</v>
+        <v>0.04382324457688887</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07932865028142462</v>
+        <v>0.08016375714475459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -3008,19 +3008,19 @@
         <v>70280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55125</v>
+        <v>54441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90121</v>
+        <v>88808</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05408243851932772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04241993872750407</v>
+        <v>0.04189382572851804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06935057680661089</v>
+        <v>0.0683403087006183</v>
       </c>
     </row>
     <row r="18">
@@ -3037,19 +3037,19 @@
         <v>522945</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>509137</v>
+        <v>509255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>533009</v>
+        <v>532930</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9344356637176884</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.909763676361668</v>
+        <v>0.909973999572</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.952418452264843</v>
+        <v>0.9522775903799804</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>635</v>
@@ -3058,19 +3058,19 @@
         <v>677509</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>660078</v>
+        <v>659656</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>692720</v>
+        <v>691621</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9157198209448314</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8921603377178063</v>
+        <v>0.8915896752528473</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9362794242371351</v>
+        <v>0.9347935297953508</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1106</v>
@@ -3079,19 +3079,19 @@
         <v>1200454</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1177145</v>
+        <v>1180305</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1218795</v>
+        <v>1219939</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9237798923355607</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9058432884905766</v>
+        <v>0.9082749110820044</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9378937238796782</v>
+        <v>0.9387739832411425</v>
       </c>
     </row>
     <row r="19">
@@ -3425,16 +3425,16 @@
         <v>1629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9812</v>
+        <v>10821</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01295367769640186</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004602040202196323</v>
+        <v>0.004602130684894699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02772419587184963</v>
+        <v>0.03057682069722682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3443,19 +3443,19 @@
         <v>13383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7473</v>
+        <v>6406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23713</v>
+        <v>24225</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02412427231490942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01347165544739053</v>
+        <v>0.01154675766380851</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04274503611773599</v>
+        <v>0.04366842881718884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -3464,19 +3464,19 @@
         <v>17967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10855</v>
+        <v>10806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29292</v>
+        <v>29813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01977358316234667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01194629346151409</v>
+        <v>0.011892137947305</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0322369492640703</v>
+        <v>0.03281030784755074</v>
       </c>
     </row>
     <row r="5">
@@ -3493,19 +3493,19 @@
         <v>19822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13336</v>
+        <v>13264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29240</v>
+        <v>28784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05601064679794743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03768273734809997</v>
+        <v>0.03747893026739529</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08262092691089679</v>
+        <v>0.08133230673776114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3514,19 +3514,19 @@
         <v>30026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19847</v>
+        <v>19773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43671</v>
+        <v>44190</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05412470931903467</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03577563761368488</v>
+        <v>0.03564331689090395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07872055410276943</v>
+        <v>0.07965619799416576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -3535,19 +3535,19 @@
         <v>49848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36264</v>
+        <v>37667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65020</v>
+        <v>67694</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05485923850142242</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03990906726087668</v>
+        <v>0.04145387047044655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07155639235929735</v>
+        <v>0.07449925849994649</v>
       </c>
     </row>
     <row r="6">
@@ -3564,19 +3564,19 @@
         <v>329494</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>319752</v>
+        <v>319985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>337023</v>
+        <v>337202</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9310356755056507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9035078198712838</v>
+        <v>0.9041665939018034</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.95230773655629</v>
+        <v>0.9528149505284886</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>437</v>
@@ -3585,19 +3585,19 @@
         <v>511348</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>495705</v>
+        <v>495642</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>523562</v>
+        <v>523992</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9217510183660559</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8935538866543178</v>
+        <v>0.8934394207069477</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9437686785043495</v>
+        <v>0.9445434820385602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>795</v>
@@ -3606,19 +3606,19 @@
         <v>840842</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>822540</v>
+        <v>822973</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>855754</v>
+        <v>855047</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9253671783362309</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9052249547398286</v>
+        <v>0.9057013884672003</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9417781009053217</v>
+        <v>0.9409995617678397</v>
       </c>
     </row>
     <row r="7">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4501</v>
+        <v>4483</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00463448816004773</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02337539010893146</v>
+        <v>0.02328474193129933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4479</v>
+        <v>4566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002344385683572472</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01176754376243725</v>
+        <v>0.01199642458148226</v>
       </c>
     </row>
     <row r="9">
@@ -3773,19 +3773,19 @@
         <v>2833</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7842</v>
+        <v>7623</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01471512267200657</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004610416184581652</v>
+        <v>0.004668446892323652</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04072870761179423</v>
+        <v>0.03959119046763841</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3794,19 +3794,19 @@
         <v>3547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9736</v>
+        <v>9814</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0188577330164417</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005343942041734896</v>
+        <v>0.005324895768358049</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05176901541602802</v>
+        <v>0.052183118752175</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -3815,19 +3815,19 @@
         <v>6380</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2800</v>
+        <v>2410</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13817</v>
+        <v>13538</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01676216689377133</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00735664365378946</v>
+        <v>0.006333034395392814</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03630320516898045</v>
+        <v>0.03556876759047136</v>
       </c>
     </row>
     <row r="10">
@@ -3844,19 +3844,19 @@
         <v>188807</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183325</v>
+        <v>183867</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191617</v>
+        <v>191540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9806503891679457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9521811146837946</v>
+        <v>0.9549962384581894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9952494141538444</v>
+        <v>0.9948461064126293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -3865,19 +3865,19 @@
         <v>184527</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>178338</v>
+        <v>178260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>187069</v>
+        <v>187073</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9811422669835583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.948230984583972</v>
+        <v>0.947816881247825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9946560579582652</v>
+        <v>0.994675104231642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>347</v>
@@ -3886,19 +3886,19 @@
         <v>373334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>366275</v>
+        <v>365842</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>377364</v>
+        <v>377469</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9808934474226562</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9623457108559599</v>
+        <v>0.9612081889540246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9914811429838486</v>
+        <v>0.9917581921608544</v>
       </c>
     </row>
     <row r="11">
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4561</v>
+        <v>4453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02066047213405714</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1085295393418109</v>
+        <v>0.1059619870850846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8128</v>
+        <v>8020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02964372277476346</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1073614202395558</v>
+        <v>0.1059381705653763</v>
       </c>
     </row>
     <row r="14">
@@ -4108,7 +4108,7 @@
         <v>41161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37468</v>
+        <v>37576</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>42029</v>
@@ -4117,7 +4117,7 @@
         <v>0.9793395278659428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8914704606581888</v>
+        <v>0.8940380129149157</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4138,7 +4138,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4150,7 +4150,7 @@
         <v>73459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67575</v>
+        <v>67683</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>75703</v>
@@ -4159,7 +4159,7 @@
         <v>0.9703562772252365</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8926385797604441</v>
+        <v>0.8940618294346255</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -4254,19 +4254,19 @@
         <v>5477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2104</v>
+        <v>2135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11534</v>
+        <v>11957</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009306644071452338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003576112038680033</v>
+        <v>0.003628682109203363</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01960021385563957</v>
+        <v>0.02031923520647042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4275,19 +4275,19 @@
         <v>13383</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6950</v>
+        <v>7012</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23686</v>
+        <v>23798</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01723505352068161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008950878950279986</v>
+        <v>0.009029828716604085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03050286594534243</v>
+        <v>0.03064798984667053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -4296,19 +4296,19 @@
         <v>18860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11055</v>
+        <v>11669</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30723</v>
+        <v>32717</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01381697009067585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008099083333210081</v>
+        <v>0.008548935217175606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02250786638592314</v>
+        <v>0.02396913105968496</v>
       </c>
     </row>
     <row r="17">
@@ -4325,19 +4325,19 @@
         <v>23524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16330</v>
+        <v>15982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33980</v>
+        <v>33315</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03997487758011684</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02775028137072764</v>
+        <v>0.02715819019856843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05774443113840098</v>
+        <v>0.05661421892430836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -4346,19 +4346,19 @@
         <v>34948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24857</v>
+        <v>24977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51213</v>
+        <v>49490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04500742038132385</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03201163669939962</v>
+        <v>0.03216596516748047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.065953578871386</v>
+        <v>0.06373436328552824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -4367,19 +4367,19 @@
         <v>58472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43699</v>
+        <v>44853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75894</v>
+        <v>75981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04283779843258952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03201447550269772</v>
+        <v>0.0328603522204218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05560111600229861</v>
+        <v>0.0556652480169529</v>
       </c>
     </row>
     <row r="18">
@@ -4396,19 +4396,19 @@
         <v>559463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>548534</v>
+        <v>549423</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>568233</v>
+        <v>568255</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9507184783484308</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9321472725375824</v>
+        <v>0.9336577144208568</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9656219487003213</v>
+        <v>0.9656595952050765</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>616</v>
@@ -4417,19 +4417,19 @@
         <v>728173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>710915</v>
+        <v>710863</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>740898</v>
+        <v>740455</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9377575260979946</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9155316687421257</v>
+        <v>0.9154652029593856</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9541438908277854</v>
+        <v>0.9535734611412924</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1207</v>
@@ -4438,19 +4438,19 @@
         <v>1287636</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1267972</v>
+        <v>1268934</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1304137</v>
+        <v>1304637</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9433452314767347</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.928939290882169</v>
+        <v>0.9296435302412731</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9554340400169237</v>
+        <v>0.9558007807020062</v>
       </c>
     </row>
     <row r="19">
@@ -4781,19 +4781,19 @@
         <v>3327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1166</v>
+        <v>1356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8213</v>
+        <v>8841</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01146738476278739</v>
+        <v>0.0114673847627874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004018174684847896</v>
+        <v>0.00467480771780597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02830994657572045</v>
+        <v>0.03047512628979874</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -4802,19 +4802,19 @@
         <v>15996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10919</v>
+        <v>10957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22905</v>
+        <v>23552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02972656768330728</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0202921369454321</v>
+        <v>0.02036230927364563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04256759215107066</v>
+        <v>0.04376876872405917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4823,19 +4823,19 @@
         <v>19322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13686</v>
+        <v>13799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27698</v>
+        <v>27359</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02333079208918086</v>
+        <v>0.02333079208918085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01652579776731766</v>
+        <v>0.0166620343894167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03344448822733536</v>
+        <v>0.03303458614889463</v>
       </c>
     </row>
     <row r="5">
@@ -4852,19 +4852,19 @@
         <v>13199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8944</v>
+        <v>8394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19622</v>
+        <v>20538</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04549888775194075</v>
+        <v>0.04549888775194076</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03083095652420852</v>
+        <v>0.02893589395956229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0676385631766557</v>
+        <v>0.07079788751589565</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -4873,19 +4873,19 @@
         <v>48745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39443</v>
+        <v>39215</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59666</v>
+        <v>60015</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09058817027646052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07330123110949631</v>
+        <v>0.07287744775892638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1108851061622029</v>
+        <v>0.1115329199174174</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -4897,16 +4897,16 @@
         <v>51393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74207</v>
+        <v>73763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07479442233153419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06205451506989972</v>
+        <v>0.06205421288842244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08960127373237307</v>
+        <v>0.08906562329126666</v>
       </c>
     </row>
     <row r="6">
@@ -4923,19 +4923,19 @@
         <v>273569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>266147</v>
+        <v>265684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>278761</v>
+        <v>279218</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9430337274852716</v>
+        <v>0.9430337274852719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9174476295095197</v>
+        <v>0.9158504646958374</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9609313499322263</v>
+        <v>0.9625063280790425</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>895</v>
@@ -4944,19 +4944,19 @@
         <v>473352</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>461072</v>
+        <v>460772</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>483801</v>
+        <v>483670</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8796852620402321</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8568652480963292</v>
+        <v>0.8563077440564733</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8991052675675186</v>
+        <v>0.8988618033028494</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1294</v>
@@ -4965,19 +4965,19 @@
         <v>746922</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>732330</v>
+        <v>733714</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>758816</v>
+        <v>759693</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.901874785579285</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8842556288638802</v>
+        <v>0.8859262946717543</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.91623645815315</v>
+        <v>0.9172957422498035</v>
       </c>
     </row>
     <row r="7">
@@ -5069,19 +5069,19 @@
         <v>1906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5200</v>
+        <v>5596</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.006274837002219514</v>
+        <v>0.006274837002219515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00199565236936965</v>
+        <v>0.002005419033505776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01711597096684571</v>
+        <v>0.0184172788472018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5090,19 +5090,19 @@
         <v>1711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4443</v>
+        <v>4323</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006162872663662642</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001671031892353144</v>
+        <v>0.001640219043368311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01600381681765041</v>
+        <v>0.01556866478211826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -5111,19 +5111,19 @@
         <v>3618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1642</v>
+        <v>1512</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7677</v>
+        <v>7564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006221375297828162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002824322746776513</v>
+        <v>0.002599508953593347</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01320264874101797</v>
+        <v>0.01300809192876024</v>
       </c>
     </row>
     <row r="9">
@@ -5140,19 +5140,19 @@
         <v>7116</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3749</v>
+        <v>3265</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13159</v>
+        <v>12133</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02342044868096597</v>
+        <v>0.02342044868096598</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01233936383167835</v>
+        <v>0.01074527562639504</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04331111773904727</v>
+        <v>0.03993385892319724</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -5161,19 +5161,19 @@
         <v>10042</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6111</v>
+        <v>5836</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15468</v>
+        <v>15848</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03616933530829942</v>
+        <v>0.03616933530829941</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02200856158374277</v>
+        <v>0.02102006899311929</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05570984406812567</v>
+        <v>0.05707838443002678</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -5182,19 +5182,19 @@
         <v>17158</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11961</v>
+        <v>11278</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24939</v>
+        <v>25069</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02950789774710921</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02057051272519089</v>
+        <v>0.01939535533938136</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04288999610940405</v>
+        <v>0.04311382395913774</v>
       </c>
     </row>
     <row r="10">
@@ -5211,19 +5211,19 @@
         <v>294803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>288217</v>
+        <v>289018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298694</v>
+        <v>299120</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9703047143168143</v>
+        <v>0.9703047143168144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9486285888162165</v>
+        <v>0.9512644496713183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9831136295201801</v>
+        <v>0.9845126203936301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>507</v>
@@ -5232,19 +5232,19 @@
         <v>265893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>260249</v>
+        <v>259655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>270052</v>
+        <v>270271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9576677920280379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9373399193812059</v>
+        <v>0.9351999218760313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9726489241000209</v>
+        <v>0.9734389819503868</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>919</v>
@@ -5253,19 +5253,19 @@
         <v>560695</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>551817</v>
+        <v>552245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>566659</v>
+        <v>567611</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9642707269550624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9490025579330581</v>
+        <v>0.949737759618467</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9745258208268612</v>
+        <v>0.9761640376359424</v>
       </c>
     </row>
     <row r="11">
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3535</v>
+        <v>3116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005541037417532714</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02973182611215899</v>
+        <v>0.02620735193796807</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3330</v>
+        <v>3296</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003265273386149191</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01650808510660043</v>
+        <v>0.01633856499487876</v>
       </c>
     </row>
     <row r="13">
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2031</v>
+        <v>2357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004787678722360755</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02451336262367718</v>
+        <v>0.02844874237768034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2397</v>
+        <v>2003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001966351462578713</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01188006277077193</v>
+        <v>0.009930372508616463</v>
       </c>
     </row>
     <row r="14">
@@ -5483,7 +5483,7 @@
         <v>118222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115346</v>
+        <v>115765</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>118881</v>
@@ -5492,7 +5492,7 @@
         <v>0.9944589625824672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9702681738878403</v>
+        <v>0.9737926480620315</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5504,16 +5504,16 @@
         <v>82458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80824</v>
+        <v>80498</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>82855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.995212321277639</v>
+        <v>0.9952123212776393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9754866373763242</v>
+        <v>0.9715512576223212</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>200681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197628</v>
+        <v>198410</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>201736</v>
@@ -5534,7 +5534,7 @@
         <v>0.9947683751512723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9796362470971063</v>
+        <v>0.9835129215304395</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5629,19 +5629,19 @@
         <v>5892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3024</v>
+        <v>3123</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11485</v>
+        <v>12613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008265712145711422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004242260715383506</v>
+        <v>0.004381745816420059</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01611223107339083</v>
+        <v>0.01769477049548835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -5650,19 +5650,19 @@
         <v>17707</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12072</v>
+        <v>11920</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24152</v>
+        <v>25139</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01970494555532781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01343410669916783</v>
+        <v>0.01326496318503519</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0268780829511363</v>
+        <v>0.02797598280598365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -5671,19 +5671,19 @@
         <v>23599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17154</v>
+        <v>16359</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31866</v>
+        <v>31611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01464479433909084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0106451940094169</v>
+        <v>0.0101522468561614</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01977516421549679</v>
+        <v>0.01961710204526971</v>
       </c>
     </row>
     <row r="17">
@@ -5700,19 +5700,19 @@
         <v>20315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14486</v>
+        <v>13605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27656</v>
+        <v>27756</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02849985135466357</v>
+        <v>0.02849985135466358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02032309357416184</v>
+        <v>0.01908628177457748</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03879965401384077</v>
+        <v>0.03893966715401555</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>113</v>
@@ -5721,19 +5721,19 @@
         <v>59184</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49638</v>
+        <v>48784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72133</v>
+        <v>71145</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06586265779727352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05523952739341743</v>
+        <v>0.05428903087919473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08027329703288887</v>
+        <v>0.07917337993070825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>147</v>
@@ -5742,19 +5742,19 @@
         <v>79498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67531</v>
+        <v>67516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94926</v>
+        <v>93992</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04933519973319862</v>
+        <v>0.04933519973319864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04190817153648713</v>
+        <v>0.04189930572070273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05890916426277473</v>
+        <v>0.05832968505951407</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>686594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>677781</v>
+        <v>678082</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>693233</v>
+        <v>693768</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9632344364996249</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9508692527550291</v>
+        <v>0.9512925952604979</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9725480781945494</v>
+        <v>0.9732982286625952</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1553</v>
@@ -5792,19 +5792,19 @@
         <v>821703</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>808416</v>
+        <v>808293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>834102</v>
+        <v>833269</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9144323966473986</v>
+        <v>0.9144323966473987</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8996466252722164</v>
+        <v>0.8995091068973071</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9282308275550928</v>
+        <v>0.9273040259048816</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2531</v>
@@ -5813,19 +5813,19 @@
         <v>1508298</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1491459</v>
+        <v>1491604</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1522286</v>
+        <v>1522035</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9360200059277105</v>
+        <v>0.9360200059277107</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9255701914925895</v>
+        <v>0.925659818366297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9447009026113826</v>
+        <v>0.944545082966882</v>
       </c>
     </row>
     <row r="19">
